--- a/Countries.xlsx
+++ b/Countries.xlsx
@@ -1046,7 +1046,9 @@
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
